--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Pomel/Auguste_Pomel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Pomel/Auguste_Pomel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Auguste Pomel est un paléontologue, géologue, botaniste et homme politique français, né le 20 septembre 1821 à Issoire et mort en août 1898[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Auguste Pomel est un paléontologue, géologue, botaniste et homme politique français, né le 20 septembre 1821 à Issoire et mort en août 1898.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il travaille comme garde des mines pendant 23 ans, dont 20 en Algérie[2],[3] à Oran (Algérie) et devient un spécialiste des vertébrés fossiles d’Afrique du Nord. Il obtient un titre de docteur ès sciences à la faculté de Paris en 1883 avec deux thèses intitulées Classification méthodique et “genera” des échinidés vivants et fossiles et Contribution à la classification méthodique des crucifères.
-Il réalisa de très nombreux travaux sur la géologie de l'Algérie. Il enseigna pendant plus de 7 ans la géologie et la minéralogie à l'École supérieure des Sciences d'Alger, qu'il dirigea de 1883 à 1888[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il travaille comme garde des mines pendant 23 ans, dont 20 en Algérie, à Oran (Algérie) et devient un spécialiste des vertébrés fossiles d’Afrique du Nord. Il obtient un titre de docteur ès sciences à la faculté de Paris en 1883 avec deux thèses intitulées Classification méthodique et “genera” des échinidés vivants et fossiles et Contribution à la classification méthodique des crucifères.
+Il réalisa de très nombreux travaux sur la géologie de l'Algérie. Il enseigna pendant plus de 7 ans la géologie et la minéralogie à l'École supérieure des Sciences d'Alger, qu'il dirigea de 1883 à 1888.
 Il fut élu conseiller général du département d'Oran de 1871 à 1880 et en fut le président pendant 6 ans. Il fut également sénateur d'Oran et siégea au Sénat (Gauche républicaine) de 1876 à 1882.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste Pomel a été nommé Chevalier de la Légion d'Honneur le 7 avril 1887[1]. L'insigne lui a été remise par Marcellin Berthelot, Ministre de l'Instruction publique et des Beaux-arts[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Pomel a été nommé Chevalier de la Légion d'Honneur le 7 avril 1887. L'insigne lui a été remise par Marcellin Berthelot, Ministre de l'Instruction publique et des Beaux-arts.
 Il a été officier de l'Instruction publique du 15 avril 1882.
 Il a reçu la médaille d'argent au congrès de la Sorbonne de 1868 pour ses travaux géologiques et la médaille d'or à celui de 1873 pour son étude sur le Sahara.
 </t>
@@ -577,7 +593,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Catalogue méthodique et descriptif des vertébrés fossiles découverts dans le bassin hydrographique supérieur de la Loire et surtout dans la vallée de son affluent principal l'Allier (J.-B. Baillière, Paris, 1853).
 Nouveau guide de géologie, minéralogie et paléontologie (Deyrolle fils, Paris, 1869).
